--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1552,28 +1552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.12106606040432</v>
+        <v>86.4269264331887</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.99678317182735</v>
+        <v>118.2531336327349</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.88480947966274</v>
+        <v>106.9672205281728</v>
       </c>
       <c r="AD2" t="n">
-        <v>62121.06606040432</v>
+        <v>86426.9264331887</v>
       </c>
       <c r="AE2" t="n">
-        <v>84996.78317182735</v>
+        <v>118253.1336327349</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.102582114724856e-06</v>
+        <v>9.44111284186526e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.977430555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>76884.80947966274</v>
+        <v>106967.2205281728</v>
       </c>
     </row>
     <row r="3">
@@ -1658,28 +1658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.62609379977854</v>
+        <v>67.90703526802818</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.11007558689032</v>
+        <v>92.9134015006405</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.84623679405685</v>
+        <v>84.0458768662201</v>
       </c>
       <c r="AD3" t="n">
-        <v>55626.09379977854</v>
+        <v>67907.03526802818</v>
       </c>
       <c r="AE3" t="n">
-        <v>76110.07558689032</v>
+        <v>92913.40150064051</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.828386318449691e-06</v>
+        <v>1.078404064476958e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.607060185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>68846.23679405685</v>
+        <v>84045.8768662201</v>
       </c>
     </row>
   </sheetData>
@@ -1955,28 +1955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.33124648325807</v>
+        <v>65.18029947054677</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.97016424691027</v>
+        <v>89.18256128743495</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.00599418547023</v>
+        <v>80.67110280669458</v>
       </c>
       <c r="AD2" t="n">
-        <v>53331.24648325807</v>
+        <v>65180.29947054677</v>
       </c>
       <c r="AE2" t="n">
-        <v>72970.16424691027</v>
+        <v>89182.56128743495</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.974456933804542e-06</v>
+        <v>1.138823696810054e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.630208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>66005.99418547023</v>
+        <v>80671.10280669457</v>
       </c>
     </row>
     <row r="3">
@@ -2061,28 +2061,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.28646160931728</v>
+        <v>65.13551459660597</v>
       </c>
       <c r="AB3" t="n">
-        <v>72.90888760661531</v>
+        <v>89.12128464713999</v>
       </c>
       <c r="AC3" t="n">
-        <v>65.95056570172271</v>
+        <v>80.61567432294704</v>
       </c>
       <c r="AD3" t="n">
-        <v>53286.46160931728</v>
+        <v>65135.51459660598</v>
       </c>
       <c r="AE3" t="n">
-        <v>72908.8876066153</v>
+        <v>89121.28464713998</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.999774501176144e-06</v>
+        <v>1.143649615883171e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.621527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>65950.56570172271</v>
+        <v>80615.67432294704</v>
       </c>
     </row>
   </sheetData>
@@ -2358,28 +2358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.08315636643654</v>
+        <v>69.92470049424639</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.15773993656889</v>
+        <v>95.67406007625844</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.74829949351724</v>
+        <v>86.54306206199058</v>
       </c>
       <c r="AD2" t="n">
-        <v>49083.15636643654</v>
+        <v>69924.7004942464</v>
       </c>
       <c r="AE2" t="n">
-        <v>67157.73993656889</v>
+        <v>95674.06007625844</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.894215041583593e-06</v>
+        <v>1.255313550520146e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.977430555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>60748.29949351725</v>
+        <v>86543.06206199058</v>
       </c>
     </row>
   </sheetData>
@@ -2655,28 +2655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.07288739080408</v>
+        <v>71.93113862863285</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.51193358795904</v>
+        <v>98.41935724952782</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.97325080344189</v>
+        <v>89.0263519260928</v>
       </c>
       <c r="AD2" t="n">
-        <v>50072.88739080408</v>
+        <v>71931.13862863285</v>
       </c>
       <c r="AE2" t="n">
-        <v>68511.93358795904</v>
+        <v>98419.35724952782</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.079179102379396e-06</v>
+        <v>1.234283534252638e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.760416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>61973.25080344189</v>
+        <v>89026.3519260928</v>
       </c>
     </row>
   </sheetData>
@@ -2952,28 +2952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.4890304585152</v>
+        <v>79.41141485190971</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.39551594410887</v>
+        <v>108.6542011847064</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.62724214174625</v>
+        <v>98.28439672079483</v>
       </c>
       <c r="AD2" t="n">
-        <v>59489.0304585152</v>
+        <v>79411.41485190971</v>
       </c>
       <c r="AE2" t="n">
-        <v>81395.51594410886</v>
+        <v>108654.2011847064</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.520404819660268e-06</v>
+        <v>1.229286326560552e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.30150462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>73627.24214174625</v>
+        <v>98284.39672079483</v>
       </c>
     </row>
   </sheetData>
@@ -3249,28 +3249,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.85329960874228</v>
+        <v>78.52241940935401</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.05270448144151</v>
+        <v>107.4378384004914</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.88977970288205</v>
+        <v>97.18412189352902</v>
       </c>
       <c r="AD2" t="n">
-        <v>54853.29960874227</v>
+        <v>78522.41940935401</v>
       </c>
       <c r="AE2" t="n">
-        <v>75052.70448144151</v>
+        <v>107437.8384004914</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.81579788045348e-06</v>
+        <v>1.099629933641509e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.679398148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>67889.77970288205</v>
+        <v>97184.12189352902</v>
       </c>
     </row>
     <row r="3">
@@ -3355,28 +3355,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.94438200085473</v>
+        <v>65.90695318301803</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.80908331171554</v>
+        <v>90.17680095453692</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.76484799216108</v>
+        <v>81.57045363539277</v>
       </c>
       <c r="AD3" t="n">
-        <v>53944.38200085473</v>
+        <v>65906.95318301803</v>
       </c>
       <c r="AE3" t="n">
-        <v>73809.08331171554</v>
+        <v>90176.80095453691</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.950617009781784e-06</v>
+        <v>1.125121044798441e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.61863425925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>66764.84799216109</v>
+        <v>81570.45363539277</v>
       </c>
     </row>
   </sheetData>
@@ -3652,28 +3652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.87633602782871</v>
+        <v>79.47551399742599</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.92544451075915</v>
+        <v>108.7419044634564</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.10659506975502</v>
+        <v>98.36372972171333</v>
       </c>
       <c r="AD2" t="n">
-        <v>59876.33602782871</v>
+        <v>79475.51399742599</v>
       </c>
       <c r="AE2" t="n">
-        <v>81925.44451075915</v>
+        <v>108741.9044634564</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.206876721162373e-06</v>
+        <v>1.193711243283188e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.582175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>74106.59506975501</v>
+        <v>98363.72972171333</v>
       </c>
     </row>
   </sheetData>
@@ -3949,28 +3949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.68182380102757</v>
+        <v>74.38706427976963</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.71335136569054</v>
+        <v>101.7796630732044</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.96456835817663</v>
+        <v>92.06595487817759</v>
       </c>
       <c r="AD2" t="n">
-        <v>51681.82380102757</v>
+        <v>74387.06427976963</v>
       </c>
       <c r="AE2" t="n">
-        <v>70713.35136569054</v>
+        <v>101779.6630732044</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.053497228729094e-06</v>
+        <v>1.186477090937576e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.67650462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>63964.56835817664</v>
+        <v>92065.9548781776</v>
       </c>
     </row>
   </sheetData>
@@ -4246,28 +4246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.75186339798819</v>
+        <v>75.95827707542541</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.17742674906664</v>
+        <v>103.929465737236</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.2889144418065</v>
+        <v>94.01058339322167</v>
       </c>
       <c r="AD2" t="n">
-        <v>52751.86339798819</v>
+        <v>75958.27707542542</v>
       </c>
       <c r="AE2" t="n">
-        <v>72177.42674906664</v>
+        <v>103929.465737236</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.007566308538633e-06</v>
+        <v>1.155076625216795e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.641782407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>65288.9144418065</v>
+        <v>94010.58339322166</v>
       </c>
     </row>
     <row r="3">
@@ -4352,28 +4352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.85639344385931</v>
+        <v>76.06280712129653</v>
       </c>
       <c r="AB3" t="n">
-        <v>72.32044936936759</v>
+        <v>104.0724883575369</v>
       </c>
       <c r="AC3" t="n">
-        <v>65.41828718395949</v>
+        <v>94.13995613537466</v>
       </c>
       <c r="AD3" t="n">
-        <v>52856.39344385931</v>
+        <v>76062.80712129653</v>
       </c>
       <c r="AE3" t="n">
-        <v>72320.44936936759</v>
+        <v>104072.4883575369</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.006469396782035e-06</v>
+        <v>1.154865721655369e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.641782407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>65418.28718395949</v>
+        <v>94139.95613537465</v>
       </c>
     </row>
   </sheetData>
@@ -4649,28 +4649,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.59699126714383</v>
+        <v>83.69736129131097</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.5432326853692</v>
+        <v>114.5184221857044</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.76086100454252</v>
+        <v>103.5889446999453</v>
       </c>
       <c r="AD2" t="n">
-        <v>59596.99126714383</v>
+        <v>83697.36129131097</v>
       </c>
       <c r="AE2" t="n">
-        <v>81543.23268536921</v>
+        <v>114518.4221857044</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.319391946707359e-06</v>
+        <v>9.909623739857542e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.879050925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>73760.86100454252</v>
+        <v>103588.9446999453</v>
       </c>
     </row>
     <row r="3">
@@ -4755,28 +4755,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.02055017584173</v>
+        <v>67.19874646978273</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.28154408592114</v>
+        <v>91.94428951938515</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.09677917668864</v>
+        <v>83.16925557229825</v>
       </c>
       <c r="AD3" t="n">
-        <v>55020.55017584174</v>
+        <v>67198.74646978274</v>
       </c>
       <c r="AE3" t="n">
-        <v>75281.54408592114</v>
+        <v>91944.28951938516</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.884189899390109e-06</v>
+        <v>1.096179948780038e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.604166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>68096.77917668864</v>
+        <v>83169.25557229825</v>
       </c>
     </row>
   </sheetData>
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.6234009208405</v>
+        <v>72.77902704448667</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.26517048669734</v>
+        <v>99.57947558629536</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.65459982973947</v>
+        <v>90.07575019703592</v>
       </c>
       <c r="AD2" t="n">
-        <v>50623.4009208405</v>
+        <v>72779.02704448666</v>
       </c>
       <c r="AE2" t="n">
-        <v>69265.17048669735</v>
+        <v>99579.47558629536</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.078464452097042e-06</v>
+        <v>1.218426591647341e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.725694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>62654.59982973948</v>
+        <v>90075.75019703592</v>
       </c>
     </row>
   </sheetData>
@@ -5349,28 +5349,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.38669912693032</v>
+        <v>70.5918562861025</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.57306053283776</v>
+        <v>96.5868920635118</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.12398247498447</v>
+        <v>87.3687746455485</v>
       </c>
       <c r="AD2" t="n">
-        <v>49386.69912693032</v>
+        <v>70591.8562861025</v>
       </c>
       <c r="AE2" t="n">
-        <v>67573.06053283776</v>
+        <v>96586.8920635118</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.977021739665691e-06</v>
+        <v>1.250430326986971e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.887731481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>61123.98247498447</v>
+        <v>87368.7746455485</v>
       </c>
     </row>
   </sheetData>
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.37081604850714</v>
+        <v>69.63629075995205</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.23376977308423</v>
+        <v>95.27944515405764</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.48093279827198</v>
+        <v>86.18610863411898</v>
       </c>
       <c r="AD2" t="n">
-        <v>59370.81604850714</v>
+        <v>69636.29075995204</v>
       </c>
       <c r="AE2" t="n">
-        <v>81233.76977308423</v>
+        <v>95279.44515405764</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.752629745870821e-06</v>
+        <v>1.250538736491128e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.104745370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>73480.93279827198</v>
+        <v>86186.10863411898</v>
       </c>
     </row>
   </sheetData>
@@ -8764,28 +8764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.14964781587013</v>
+        <v>90.08915115193042</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.35008704256501</v>
+        <v>123.2639510588666</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.059131366952</v>
+        <v>111.4998125718826</v>
       </c>
       <c r="AD2" t="n">
-        <v>71149.64781587012</v>
+        <v>90089.15115193042</v>
       </c>
       <c r="AE2" t="n">
-        <v>97350.08704256501</v>
+        <v>123263.9510588666</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.671215590367551e-06</v>
+        <v>1.111061223411854e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.10300925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>88059.131366952</v>
+        <v>111499.8125718826</v>
       </c>
     </row>
   </sheetData>
@@ -9061,28 +9061,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.03316290466867</v>
+        <v>74.99433465240389</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.19406902727938</v>
+        <v>102.6105571879202</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.39940700083507</v>
+        <v>92.81754962475243</v>
       </c>
       <c r="AD2" t="n">
-        <v>52033.16290466867</v>
+        <v>74994.33465240389</v>
       </c>
       <c r="AE2" t="n">
-        <v>71194.06902727939</v>
+        <v>102610.5571879202</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.065489555875012e-06</v>
+        <v>1.177055677406074e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.641782407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>64399.40700083508</v>
+        <v>92817.54962475243</v>
       </c>
     </row>
   </sheetData>
@@ -9358,28 +9358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.11682723287381</v>
+        <v>81.00514778655081</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.14976283656775</v>
+        <v>110.834816896416</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.69125915534474</v>
+        <v>100.256897529493</v>
       </c>
       <c r="AD2" t="n">
-        <v>57116.82723287381</v>
+        <v>81005.14778655081</v>
       </c>
       <c r="AE2" t="n">
-        <v>78149.76283656775</v>
+        <v>110834.816896416</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.57170728897525e-06</v>
+        <v>1.045470826065692e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.771990740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>70691.25915534474</v>
+        <v>100256.897529493</v>
       </c>
     </row>
     <row r="3">
@@ -9464,28 +9464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.49940430751175</v>
+        <v>66.57157586620768</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.56848931753935</v>
+        <v>91.08616703075994</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.45177735462234</v>
+        <v>82.39303108960466</v>
       </c>
       <c r="AD3" t="n">
-        <v>54499.40430751175</v>
+        <v>66571.57586620768</v>
       </c>
       <c r="AE3" t="n">
-        <v>74568.48931753935</v>
+        <v>91086.16703075994</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.913223304676034e-06</v>
+        <v>1.109552625868034e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.612847222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>67451.77735462233</v>
+        <v>82393.03108960466</v>
       </c>
     </row>
   </sheetData>
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.59394296688751</v>
+        <v>102.9144184019051</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.7451647886195</v>
+        <v>140.8120475211313</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.6986087105827</v>
+        <v>127.3731433367024</v>
       </c>
       <c r="AD2" t="n">
-        <v>84593.94296688751</v>
+        <v>102914.4184019051</v>
       </c>
       <c r="AE2" t="n">
-        <v>115745.1647886195</v>
+        <v>140812.0475211313</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.781342689076596e-06</v>
+        <v>9.456851101054825e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.248842592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>104698.6087105827</v>
+        <v>127373.1433367024</v>
       </c>
     </row>
   </sheetData>
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.76670140000417</v>
+        <v>71.30925449411809</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.09299640737424</v>
+        <v>97.56846794109346</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.59429639938995</v>
+        <v>88.25667029902449</v>
       </c>
       <c r="AD2" t="n">
-        <v>49766.70140000417</v>
+        <v>71309.2544941181</v>
       </c>
       <c r="AE2" t="n">
-        <v>68092.99640737424</v>
+        <v>97568.46794109346</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.028170882212998e-06</v>
+        <v>1.241371258045685e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.821180555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>61594.29639938995</v>
+        <v>88256.6702990245</v>
       </c>
     </row>
   </sheetData>
@@ -10355,28 +10355,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.05021411023752</v>
+        <v>73.4874879132127</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.84915512209906</v>
+        <v>100.5488230019735</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.18284979116621</v>
+        <v>90.95258445584967</v>
       </c>
       <c r="AD2" t="n">
-        <v>51050.21411023752</v>
+        <v>73487.48791321271</v>
       </c>
       <c r="AE2" t="n">
-        <v>69849.15512209907</v>
+        <v>100548.8230019735</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.089327634971855e-06</v>
+        <v>1.206407916184634e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.690972222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>63182.84979116621</v>
+        <v>90952.58445584968</v>
       </c>
     </row>
   </sheetData>
